--- a/templates/Template_IK.xlsx
+++ b/templates/Template_IK.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IK" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REVISI" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,18 +28,19 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="16"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00374151"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00111827"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -50,12 +52,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5E7EB"/>
+        <fgColor rgb="00E7EEF9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00111827"/>
+        <fgColor rgb="00F3F4F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,43 +71,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </left>
       <right style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </right>
       <top style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,41 +474,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>TEMPLATE IK (INSTRUKSI KERJA)</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Petunjuk: IK menjelaskan CARA KERJA TEKNIS (step-by-step) untuk satu tugas. Isi bagian "Kapan digunakan" + "Langkah Kerja". Jika perlu, tambah contoh/screenshot di kolom Detail.</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Identitas Dokumen</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -518,10 +521,6 @@
           <t>Isi</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -530,10 +529,6 @@
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -542,10 +537,6 @@
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
@@ -554,10 +545,6 @@
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -566,46 +553,29 @@
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Disusun oleh</t>
+          <t>PIC / Disusun oleh</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Disahkan oleh</t>
+          <t>Disahkan oleh (opsional)</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Kondisi &amp; Persiapan</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -618,10 +588,6 @@
           <t>Isi</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
@@ -630,10 +596,6 @@
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
@@ -642,10 +604,6 @@
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -654,22 +612,13 @@
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Langkah Kerja (Step-by-step)</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
@@ -697,299 +646,229 @@
           <t>Kesalahan Umum</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>Solusi</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr"/>
-      <c r="B20" s="6" t="inlineStr"/>
-      <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="inlineStr"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr"/>
-      <c r="B21" s="6" t="inlineStr"/>
-      <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="inlineStr"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr"/>
-      <c r="B22" s="6" t="inlineStr"/>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="inlineStr"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr"/>
-      <c r="B23" s="6" t="inlineStr"/>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="inlineStr"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr"/>
-      <c r="B24" s="6" t="inlineStr"/>
-      <c r="C24" s="6" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
-      <c r="E24" s="6" t="inlineStr"/>
-      <c r="F24" s="6" t="inlineStr"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
-      <c r="B25" s="6" t="inlineStr"/>
-      <c r="C25" s="6" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
-      <c r="E25" s="6" t="inlineStr"/>
-      <c r="F25" s="6" t="inlineStr"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr"/>
-      <c r="B26" s="6" t="inlineStr"/>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="inlineStr"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr"/>
-      <c r="B27" s="6" t="inlineStr"/>
-      <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="inlineStr"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr"/>
-      <c r="B28" s="6" t="inlineStr"/>
-      <c r="C28" s="6" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
-      <c r="E28" s="6" t="inlineStr"/>
-      <c r="F28" s="6" t="inlineStr"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
-      <c r="B29" s="6" t="inlineStr"/>
-      <c r="C29" s="6" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
-      <c r="E29" s="6" t="inlineStr"/>
-      <c r="F29" s="6" t="inlineStr"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr"/>
-      <c r="B30" s="6" t="inlineStr"/>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="inlineStr"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr"/>
-      <c r="B31" s="6" t="inlineStr"/>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="inlineStr"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Kriteria Keberhasilan (Acceptance Criteria)</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>Kriteria</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>Cara Verifikasi</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>Lolos/Gagal</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Catatan</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr"/>
-      <c r="B35" s="6" t="inlineStr"/>
-      <c r="C35" s="6" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
-      <c r="E35" s="6" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr"/>
-      <c r="B36" s="6" t="inlineStr"/>
-      <c r="C36" s="6" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
-      <c r="E36" s="6" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr"/>
-      <c r="B37" s="6" t="inlineStr"/>
-      <c r="C37" s="6" t="inlineStr"/>
-      <c r="D37" s="6" t="inlineStr"/>
-      <c r="E37" s="6" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr"/>
-      <c r="B38" s="6" t="inlineStr"/>
-      <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr"/>
-      <c r="B39" s="6" t="inlineStr"/>
-      <c r="C39" s="6" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
-      <c r="E39" s="6" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr"/>
-      <c r="B40" s="6" t="inlineStr"/>
-      <c r="C40" s="6" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
-      <c r="E40" s="6" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Bukti yang Harus Tersimpan</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n"/>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="inlineStr">
-        <is>
-          <t>Jenis Bukti</t>
-        </is>
-      </c>
-      <c r="C43" s="7" t="inlineStr">
-        <is>
-          <t>Format</t>
-        </is>
-      </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>Lokasi Simpan</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>Retensi</t>
-        </is>
-      </c>
-      <c r="F43" s="7" t="inlineStr">
-        <is>
-          <t>Catatan</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr"/>
-      <c r="B44" s="6" t="inlineStr"/>
-      <c r="C44" s="6" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
-      <c r="E44" s="6" t="inlineStr"/>
-      <c r="F44" s="6" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr"/>
-      <c r="B45" s="6" t="inlineStr"/>
-      <c r="C45" s="6" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="inlineStr"/>
-      <c r="F45" s="6" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr"/>
-      <c r="B46" s="6" t="inlineStr"/>
-      <c r="C46" s="6" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
-      <c r="E46" s="6" t="inlineStr"/>
-      <c r="F46" s="6" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr"/>
-      <c r="B47" s="6" t="inlineStr"/>
-      <c r="C47" s="6" t="inlineStr"/>
-      <c r="D47" s="6" t="inlineStr"/>
-      <c r="E47" s="6" t="inlineStr"/>
-      <c r="F47" s="6" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr"/>
-      <c r="B48" s="6" t="inlineStr"/>
-      <c r="C48" s="6" t="inlineStr"/>
-      <c r="D48" s="6" t="inlineStr"/>
-      <c r="E48" s="6" t="inlineStr"/>
-      <c r="F48" s="6" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr"/>
-      <c r="B49" s="6" t="inlineStr"/>
-      <c r="C49" s="6" t="inlineStr"/>
-      <c r="D49" s="6" t="inlineStr"/>
-      <c r="E49" s="6" t="inlineStr"/>
-      <c r="F49" s="6" t="inlineStr"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B13:F13"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Riwayat Revisi Dokumen</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Tanggal</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Revisi</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Uraian Perubahan</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Disetujui Oleh</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
